--- a/data/交易记录/资金管理_RB9999 短期指标交易系统_多.xlsx
+++ b/data/交易记录/资金管理_RB9999 短期指标交易系统_多.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="203">
   <si>
     <t xml:space="preserve"> 2009-08-14 </t>
   </si>
@@ -647,6 +647,10 @@
   </si>
   <si>
     <t>1 / 20181225</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 / 20190211</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1846,24 +1850,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="119993856"/>
-        <c:axId val="119995392"/>
+        <c:axId val="180851840"/>
+        <c:axId val="180853376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119993856"/>
+        <c:axId val="180851840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119995392"/>
+        <c:crossAx val="180853376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119995392"/>
+        <c:axId val="180853376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1871,20 +1875,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119993856"/>
+        <c:crossAx val="180851840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1948,24 +1951,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120092928"/>
-        <c:axId val="120098816"/>
+        <c:axId val="181614848"/>
+        <c:axId val="181649408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120092928"/>
+        <c:axId val="181614848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120098816"/>
+        <c:crossAx val="181649408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120098816"/>
+        <c:axId val="181649408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,7 +1976,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120092928"/>
+        <c:crossAx val="181614848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1986,7 +1989,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2083,24 +2086,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120110464"/>
-        <c:axId val="120120448"/>
+        <c:axId val="181669248"/>
+        <c:axId val="181671040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120110464"/>
+        <c:axId val="181669248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120120448"/>
+        <c:crossAx val="181671040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120120448"/>
+        <c:axId val="181671040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2111,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120110464"/>
+        <c:crossAx val="181669248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2121,7 +2124,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2218,24 +2221,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120148352"/>
-        <c:axId val="120149888"/>
+        <c:axId val="181686656"/>
+        <c:axId val="181688192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120148352"/>
+        <c:axId val="181686656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120149888"/>
+        <c:crossAx val="181688192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120149888"/>
+        <c:axId val="181688192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2243,7 +2246,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120148352"/>
+        <c:crossAx val="181686656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2256,7 +2259,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6724,8 +6727,8 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <pane ySplit="8" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7454,7 +7457,7 @@
         <v>12</v>
       </c>
       <c r="B59" s="29">
-        <f t="shared" ref="B59:B65" si="20">B58+(B$6*C58)</f>
+        <f t="shared" ref="B59:B63" si="20">B58+(B$6*C58)</f>
         <v>60812.708966678219</v>
       </c>
       <c r="C59" s="17">
@@ -7624,9 +7627,17 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.5">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
+      <c r="A73" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" s="17">
+        <f>(B72+2210)</f>
+        <v>31780</v>
+      </c>
+      <c r="C73" s="17">
+        <f>ROUNDDOWN((B73*B$3/100)/(B$4*(1+B$5)),0)</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="16.5">
       <c r="A74" s="17"/>

--- a/data/交易记录/资金管理_RB9999 短期指标交易系统_多.xlsx
+++ b/data/交易记录/资金管理_RB9999 短期指标交易系统_多.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="204">
   <si>
     <t xml:space="preserve"> 2009-08-14 </t>
   </si>
@@ -651,6 +651,10 @@
   </si>
   <si>
     <t>2 / 20190211</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 / 20190325</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -826,6 +830,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1850,24 +1855,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="180851840"/>
-        <c:axId val="180853376"/>
+        <c:axId val="187733120"/>
+        <c:axId val="187734656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180851840"/>
+        <c:axId val="187733120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180853376"/>
+        <c:crossAx val="187734656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180853376"/>
+        <c:axId val="187734656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,7 +1880,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180851840"/>
+        <c:crossAx val="187733120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1887,7 +1892,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1951,24 +1956,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181614848"/>
-        <c:axId val="181649408"/>
+        <c:axId val="188496128"/>
+        <c:axId val="188530688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181614848"/>
+        <c:axId val="188496128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181649408"/>
+        <c:crossAx val="188530688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181649408"/>
+        <c:axId val="188530688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,20 +1981,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181614848"/>
+        <c:crossAx val="188496128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2086,24 +2090,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181669248"/>
-        <c:axId val="181671040"/>
+        <c:axId val="188546432"/>
+        <c:axId val="188548224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181669248"/>
+        <c:axId val="188546432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181671040"/>
+        <c:crossAx val="188548224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181671040"/>
+        <c:axId val="188548224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,20 +2115,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181669248"/>
+        <c:crossAx val="188546432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2221,24 +2224,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181686656"/>
-        <c:axId val="181688192"/>
+        <c:axId val="188567936"/>
+        <c:axId val="188569472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181686656"/>
+        <c:axId val="188567936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181688192"/>
+        <c:crossAx val="188569472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181688192"/>
+        <c:axId val="188569472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2246,7 +2249,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181686656"/>
+        <c:crossAx val="188567936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2259,7 +2262,102 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="zh-CN"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>资金管理!$A$72:$A$74</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 / 20181225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 / 20190211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 / 20190325</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>资金管理!$B$72:$B$74</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29570</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="249246848"/>
+        <c:axId val="249248384"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="249246848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="249248384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="249248384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="249246848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2430,6 +2528,36 @@
         <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6727,8 +6855,8 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <pane ySplit="8" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7631,7 +7759,7 @@
         <v>202</v>
       </c>
       <c r="B73" s="17">
-        <f>(B72+2210)</f>
+        <f>(B72+2210*C72)</f>
         <v>31780</v>
       </c>
       <c r="C73" s="17">
@@ -7640,9 +7768,17 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="16.5">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
+      <c r="A74" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="12">
+        <f>B73-(640*C73)</f>
+        <v>30500</v>
+      </c>
+      <c r="C74" s="12">
+        <f>ROUNDDOWN((B74*B$3/100)/(B$4*(1+B$5)),0)</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/data/交易记录/资金管理_RB9999 短期指标交易系统_多.xlsx
+++ b/data/交易记录/资金管理_RB9999 短期指标交易系统_多.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="205">
   <si>
     <t xml:space="preserve"> 2009-08-14 </t>
   </si>
@@ -655,6 +655,10 @@
   </si>
   <si>
     <t>3 / 20190325</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 / 20190508</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1855,24 +1859,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="187733120"/>
-        <c:axId val="187734656"/>
+        <c:axId val="188585472"/>
+        <c:axId val="188587008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="187733120"/>
+        <c:axId val="188585472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187734656"/>
+        <c:crossAx val="188587008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187734656"/>
+        <c:axId val="188587008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,7 +1884,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187733120"/>
+        <c:crossAx val="188585472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1892,7 +1896,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1956,24 +1960,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="188496128"/>
-        <c:axId val="188530688"/>
+        <c:axId val="189348480"/>
+        <c:axId val="189383040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="188496128"/>
+        <c:axId val="189348480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188530688"/>
+        <c:crossAx val="189383040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188530688"/>
+        <c:axId val="189383040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,7 +1985,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188496128"/>
+        <c:crossAx val="189348480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1993,7 +1997,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2090,24 +2094,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="188546432"/>
-        <c:axId val="188548224"/>
+        <c:axId val="189399040"/>
+        <c:axId val="189400576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="188546432"/>
+        <c:axId val="189399040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188548224"/>
+        <c:crossAx val="189400576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188548224"/>
+        <c:axId val="189400576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,19 +2119,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188546432"/>
+        <c:crossAx val="189399040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2224,24 +2229,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="188567936"/>
-        <c:axId val="188569472"/>
+        <c:axId val="189420288"/>
+        <c:axId val="189421824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="188567936"/>
+        <c:axId val="189420288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188569472"/>
+        <c:crossAx val="189421824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188569472"/>
+        <c:axId val="189421824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,7 +2254,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188567936"/>
+        <c:crossAx val="189420288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2262,7 +2267,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2284,9 +2289,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>资金管理!$A$72:$A$74</c:f>
+              <c:f>资金管理!$A$72:$A$75</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1 / 20181225</c:v>
                 </c:pt>
@@ -2296,15 +2301,18 @@
                 <c:pt idx="2">
                   <c:v>3 / 20190325</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3 / 20190508</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>资金管理!$B$72:$B$74</c:f>
+              <c:f>资金管理!$B$72:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>29570</c:v>
                 </c:pt>
@@ -2314,29 +2322,32 @@
                 <c:pt idx="2">
                   <c:v>30500</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>28360</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="249246848"/>
-        <c:axId val="249248384"/>
+        <c:axId val="254154240"/>
+        <c:axId val="254155776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="249246848"/>
+        <c:axId val="254154240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249248384"/>
+        <c:crossAx val="254155776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="249248384"/>
+        <c:axId val="254155776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,7 +2355,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249246848"/>
+        <c:crossAx val="254154240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2357,7 +2368,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6852,11 +6863,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <pane ySplit="8" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7778,6 +7789,19 @@
       <c r="C74" s="12">
         <f>ROUNDDOWN((B74*B$3/100)/(B$4*(1+B$5)),0)</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16.5">
+      <c r="A75" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B75" s="12">
+        <f>B74-(1070*C74)</f>
+        <v>28360</v>
+      </c>
+      <c r="C75" s="12">
+        <f>ROUNDDOWN((B75*B$3/100)/(B$4*(1+B$5)),0)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/交易记录/资金管理_RB9999 短期指标交易系统_多.xlsx
+++ b/data/交易记录/资金管理_RB9999 短期指标交易系统_多.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="206">
   <si>
     <t xml:space="preserve"> 2009-08-14 </t>
   </si>
@@ -658,7 +658,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>3 / 20190508</t>
+    <t>4 / 20190508</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 / 20190529</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1859,24 +1863,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="188585472"/>
-        <c:axId val="188587008"/>
+        <c:axId val="259873408"/>
+        <c:axId val="259891584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188585472"/>
+        <c:axId val="259873408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188587008"/>
+        <c:crossAx val="259891584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188587008"/>
+        <c:axId val="259891584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1884,7 +1888,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188585472"/>
+        <c:crossAx val="259873408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1896,7 +1900,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1960,24 +1964,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="189348480"/>
-        <c:axId val="189383040"/>
+        <c:axId val="262778880"/>
+        <c:axId val="262780416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189348480"/>
+        <c:axId val="262778880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189383040"/>
+        <c:crossAx val="262780416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189383040"/>
+        <c:axId val="262780416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1985,19 +1989,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189348480"/>
+        <c:crossAx val="262778880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2094,24 +2099,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="189399040"/>
-        <c:axId val="189400576"/>
+        <c:axId val="262866048"/>
+        <c:axId val="262867584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189399040"/>
+        <c:axId val="262866048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189400576"/>
+        <c:crossAx val="262867584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189400576"/>
+        <c:axId val="262867584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,7 +2124,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189399040"/>
+        <c:crossAx val="262866048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2132,7 +2137,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2229,24 +2234,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="189420288"/>
-        <c:axId val="189421824"/>
+        <c:axId val="262928256"/>
+        <c:axId val="262929792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189420288"/>
+        <c:axId val="262928256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189421824"/>
+        <c:crossAx val="262929792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189421824"/>
+        <c:axId val="262929792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2254,7 +2259,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189420288"/>
+        <c:crossAx val="262928256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2267,7 +2272,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2289,9 +2294,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>资金管理!$A$72:$A$75</c:f>
+              <c:f>资金管理!$A$72:$A$76</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1 / 20181225</c:v>
                 </c:pt>
@@ -2302,17 +2307,20 @@
                   <c:v>3 / 20190325</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3 / 20190508</c:v>
+                  <c:v>4 / 20190508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 / 20190529</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>资金管理!$B$72:$B$75</c:f>
+              <c:f>资金管理!$B$72:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>29570</c:v>
                 </c:pt>
@@ -2325,29 +2333,32 @@
                 <c:pt idx="3">
                   <c:v>28360</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>28170</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="254154240"/>
-        <c:axId val="254155776"/>
+        <c:axId val="264661248"/>
+        <c:axId val="264671232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="254154240"/>
+        <c:axId val="264661248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254155776"/>
+        <c:crossAx val="264671232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254155776"/>
+        <c:axId val="264671232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2355,7 +2366,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254154240"/>
+        <c:crossAx val="264661248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2368,7 +2379,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6863,11 +6874,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <pane ySplit="8" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7801,6 +7812,19 @@
       </c>
       <c r="C75" s="12">
         <f>ROUNDDOWN((B75*B$3/100)/(B$4*(1+B$5)),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5">
+      <c r="A76" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76" s="12">
+        <f>B75-(190*C75)</f>
+        <v>28170</v>
+      </c>
+      <c r="C76" s="12">
+        <f>ROUNDDOWN((B76*B$3/100)/(B$4*(1+B$5)),0)</f>
         <v>1</v>
       </c>
     </row>

--- a/data/交易记录/资金管理_RB9999 短期指标交易系统_多.xlsx
+++ b/data/交易记录/资金管理_RB9999 短期指标交易系统_多.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="207">
   <si>
     <t xml:space="preserve"> 2009-08-14 </t>
   </si>
@@ -663,6 +663,10 @@
   </si>
   <si>
     <t>5 / 20190529</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 / 20190617</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1863,24 +1867,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="259873408"/>
-        <c:axId val="259891584"/>
+        <c:axId val="181638272"/>
+        <c:axId val="181639808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="259873408"/>
+        <c:axId val="181638272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259891584"/>
+        <c:crossAx val="181639808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="259891584"/>
+        <c:axId val="181639808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +1892,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259873408"/>
+        <c:crossAx val="181638272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1900,7 +1904,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1964,24 +1968,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="262778880"/>
-        <c:axId val="262780416"/>
+        <c:axId val="182401280"/>
+        <c:axId val="182439936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="262778880"/>
+        <c:axId val="182401280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262780416"/>
+        <c:crossAx val="182439936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262780416"/>
+        <c:axId val="182439936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,20 +1993,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262778880"/>
+        <c:crossAx val="182401280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2099,24 +2102,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="262866048"/>
-        <c:axId val="262867584"/>
+        <c:axId val="182451584"/>
+        <c:axId val="182453376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="262866048"/>
+        <c:axId val="182451584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262867584"/>
+        <c:crossAx val="182453376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262867584"/>
+        <c:axId val="182453376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,20 +2127,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262866048"/>
+        <c:crossAx val="182451584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2234,24 +2236,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="262928256"/>
-        <c:axId val="262929792"/>
+        <c:axId val="182473088"/>
+        <c:axId val="182474624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="262928256"/>
+        <c:axId val="182473088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262929792"/>
+        <c:crossAx val="182474624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262929792"/>
+        <c:axId val="182474624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2261,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="#,##0.00;[Red]\-#,##0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262928256"/>
+        <c:crossAx val="182473088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2272,7 +2274,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2294,9 +2296,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>资金管理!$A$72:$A$76</c:f>
+              <c:f>资金管理!$A$72:$A$77</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1 / 20181225</c:v>
                 </c:pt>
@@ -2312,15 +2314,18 @@
                 <c:pt idx="4">
                   <c:v>5 / 20190529</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 / 20190617</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>资金管理!$B$72:$B$76</c:f>
+              <c:f>资金管理!$B$72:$B$77</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>29570</c:v>
                 </c:pt>
@@ -2336,29 +2341,32 @@
                 <c:pt idx="4">
                   <c:v>28170</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>27670</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="264661248"/>
-        <c:axId val="264671232"/>
+        <c:axId val="209925248"/>
+        <c:axId val="209926784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="264661248"/>
+        <c:axId val="209925248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264671232"/>
+        <c:crossAx val="209926784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="264671232"/>
+        <c:axId val="209926784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2366,7 +2374,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0_ " sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264661248"/>
+        <c:crossAx val="209925248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2379,7 +2387,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6874,11 +6882,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7825,6 +7833,19 @@
       </c>
       <c r="C76" s="12">
         <f>ROUNDDOWN((B76*B$3/100)/(B$4*(1+B$5)),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5">
+      <c r="A77" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="12">
+        <f>B76-(500*C76)</f>
+        <v>27670</v>
+      </c>
+      <c r="C77" s="12">
+        <f>ROUNDDOWN((B77*B$3/100)/(B$4*(1+B$5)),0)</f>
         <v>1</v>
       </c>
     </row>
